--- a/Code/Results/Cases/Case_3_168/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_168/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004408425485315</v>
+        <v>1.027520695437743</v>
       </c>
       <c r="D2">
-        <v>1.020915947363742</v>
+        <v>1.032301774436475</v>
       </c>
       <c r="E2">
-        <v>1.010290757011208</v>
+        <v>1.027609874303749</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04272550748994</v>
+        <v>1.033536576406378</v>
       </c>
       <c r="J2">
-        <v>1.026458076081566</v>
+        <v>1.032678109988713</v>
       </c>
       <c r="K2">
-        <v>1.032091381870459</v>
+        <v>1.035107398427057</v>
       </c>
       <c r="L2">
-        <v>1.021608563022319</v>
+        <v>1.030429102474869</v>
       </c>
       <c r="N2">
-        <v>1.02791576428599</v>
+        <v>1.034144631354739</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008091351237131</v>
+        <v>1.028301072450298</v>
       </c>
       <c r="D3">
-        <v>1.023542793490902</v>
+        <v>1.032878511955579</v>
       </c>
       <c r="E3">
-        <v>1.013172517595443</v>
+        <v>1.02826801873824</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043631413318776</v>
+        <v>1.03368227300884</v>
       </c>
       <c r="J3">
-        <v>1.028363842166356</v>
+        <v>1.033099575735387</v>
       </c>
       <c r="K3">
-        <v>1.033883047374221</v>
+        <v>1.035493500853492</v>
       </c>
       <c r="L3">
-        <v>1.023639582904322</v>
+        <v>1.030895412652906</v>
       </c>
       <c r="N3">
-        <v>1.029824236777214</v>
+        <v>1.034566695631109</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010431578664324</v>
+        <v>1.028806608519734</v>
       </c>
       <c r="D4">
-        <v>1.025214480168207</v>
+        <v>1.033252132454826</v>
       </c>
       <c r="E4">
-        <v>1.015009380472354</v>
+        <v>1.028694776556743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044198693206533</v>
+        <v>1.033775613710888</v>
       </c>
       <c r="J4">
-        <v>1.029572156004432</v>
+        <v>1.033372196915805</v>
       </c>
       <c r="K4">
-        <v>1.035017822752246</v>
+        <v>1.035743066147848</v>
       </c>
       <c r="L4">
-        <v>1.0249299686844</v>
+        <v>1.031197356885715</v>
       </c>
       <c r="N4">
-        <v>1.031034266559535</v>
+        <v>1.034839703964874</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011405440400268</v>
+        <v>1.029019272836835</v>
       </c>
       <c r="D5">
-        <v>1.025910699912594</v>
+        <v>1.033409304191379</v>
       </c>
       <c r="E5">
-        <v>1.015775111975972</v>
+        <v>1.028874397673045</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044432724430948</v>
+        <v>1.033814629610479</v>
       </c>
       <c r="J5">
-        <v>1.03007431837039</v>
+        <v>1.033486782661957</v>
       </c>
       <c r="K5">
-        <v>1.035489127950237</v>
+        <v>1.035847917666564</v>
       </c>
       <c r="L5">
-        <v>1.025466879436675</v>
+        <v>1.031324343115634</v>
       </c>
       <c r="N5">
-        <v>1.031537142053652</v>
+        <v>1.034954452435928</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01156837975015</v>
+        <v>1.029054988087535</v>
       </c>
       <c r="D6">
-        <v>1.026027218280203</v>
+        <v>1.033435699923981</v>
       </c>
       <c r="E6">
-        <v>1.015903306354515</v>
+        <v>1.028904569230505</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04447176019551</v>
+        <v>1.033821167363204</v>
       </c>
       <c r="J6">
-        <v>1.030158296600224</v>
+        <v>1.033506020653993</v>
       </c>
       <c r="K6">
-        <v>1.035567928222874</v>
+        <v>1.035865518803235</v>
       </c>
       <c r="L6">
-        <v>1.025556706465849</v>
+        <v>1.03134566748513</v>
       </c>
       <c r="N6">
-        <v>1.031621239542205</v>
+        <v>1.03497371774812</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010444630246117</v>
+        <v>1.028809449614982</v>
       </c>
       <c r="D7">
-        <v>1.025223808648115</v>
+        <v>1.03325423219416</v>
       </c>
       <c r="E7">
-        <v>1.015019637468386</v>
+        <v>1.028697175831864</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044201837747832</v>
+        <v>1.033776135926442</v>
       </c>
       <c r="J7">
-        <v>1.02957888858724</v>
+        <v>1.033373728112961</v>
       </c>
       <c r="K7">
-        <v>1.035024142805522</v>
+        <v>1.035744467438987</v>
       </c>
       <c r="L7">
-        <v>1.024937164612589</v>
+        <v>1.031199053491763</v>
       </c>
       <c r="N7">
-        <v>1.031041008703383</v>
+        <v>1.034841237336505</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005662145109362</v>
+        <v>1.027784306281523</v>
       </c>
       <c r="D8">
-        <v>1.021809610284185</v>
+        <v>1.032496594819529</v>
       </c>
       <c r="E8">
-        <v>1.011270532197518</v>
+        <v>1.027832110922644</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043035620622522</v>
+        <v>1.033586008347227</v>
       </c>
       <c r="J8">
-        <v>1.027107365883421</v>
+        <v>1.032820565226457</v>
       </c>
       <c r="K8">
-        <v>1.032702043222322</v>
+        <v>1.035237938375111</v>
       </c>
       <c r="L8">
-        <v>1.02229997085768</v>
+        <v>1.030586649731124</v>
       </c>
       <c r="N8">
-        <v>1.028565976153837</v>
+        <v>1.034287288895253</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9968926353375621</v>
+        <v>1.02598239819471</v>
       </c>
       <c r="D9">
-        <v>1.015570962068851</v>
+        <v>1.031164940409345</v>
       </c>
       <c r="E9">
-        <v>1.004442714748372</v>
+        <v>1.026314693355839</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040832442485182</v>
+        <v>1.033243853563985</v>
       </c>
       <c r="J9">
-        <v>1.02255560186806</v>
+        <v>1.031845152066742</v>
       </c>
       <c r="K9">
-        <v>1.028416363575569</v>
+        <v>1.034343371866929</v>
       </c>
       <c r="L9">
-        <v>1.017464120907855</v>
+        <v>1.029509192962856</v>
       </c>
       <c r="N9">
-        <v>1.02400774811148</v>
+        <v>1.03331049053697</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9907959600657791</v>
+        <v>1.024784281678368</v>
       </c>
       <c r="D10">
-        <v>1.011251355818721</v>
+        <v>1.030279571377919</v>
       </c>
       <c r="E10">
-        <v>0.9997298586700634</v>
+        <v>1.025307864385804</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03925905533757</v>
+        <v>1.03301100448552</v>
       </c>
       <c r="J10">
-        <v>1.019379572727304</v>
+        <v>1.031194508535528</v>
       </c>
       <c r="K10">
-        <v>1.025420392283121</v>
+        <v>1.033745733651523</v>
       </c>
       <c r="L10">
-        <v>1.01410399231563</v>
+        <v>1.028792104773625</v>
       </c>
       <c r="N10">
-        <v>1.020827208645047</v>
+        <v>1.032658923017312</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9880918337055054</v>
+        <v>1.02426625629888</v>
       </c>
       <c r="D11">
-        <v>1.009340249350424</v>
+        <v>1.02989679057021</v>
       </c>
       <c r="E11">
-        <v>0.9976480946909778</v>
+        <v>1.024873055851738</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038551761967919</v>
+        <v>1.032909062120811</v>
       </c>
       <c r="J11">
-        <v>1.01796853668799</v>
+        <v>1.030912702751864</v>
       </c>
       <c r="K11">
-        <v>1.024088145984653</v>
+        <v>1.033486668187737</v>
       </c>
       <c r="L11">
-        <v>1.012614501215551</v>
+        <v>1.028481904987323</v>
       </c>
       <c r="N11">
-        <v>1.01941416877271</v>
+        <v>1.032376717037112</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9870773145324235</v>
+        <v>1.024073955764672</v>
       </c>
       <c r="D12">
-        <v>1.008624031605567</v>
+        <v>1.029754699333201</v>
       </c>
       <c r="E12">
-        <v>0.9968684067209443</v>
+        <v>1.024711724186278</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038285026543016</v>
+        <v>1.032871029101589</v>
       </c>
       <c r="J12">
-        <v>1.017438836851232</v>
+        <v>1.030808017995343</v>
       </c>
       <c r="K12">
-        <v>1.02358785309356</v>
+        <v>1.033390398456624</v>
       </c>
       <c r="L12">
-        <v>1.01205585005243</v>
+        <v>1.028366730194739</v>
       </c>
       <c r="N12">
-        <v>1.018883716701427</v>
+        <v>1.032271883616228</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.987295396054496</v>
+        <v>1.024115199549496</v>
       </c>
       <c r="D13">
-        <v>1.008777953897412</v>
+        <v>1.029785174254312</v>
       </c>
       <c r="E13">
-        <v>0.9970359476243695</v>
+        <v>1.024746322397756</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038342425693824</v>
+        <v>1.032879194862144</v>
       </c>
       <c r="J13">
-        <v>1.017552715033279</v>
+        <v>1.030830473640227</v>
       </c>
       <c r="K13">
-        <v>1.02369541672112</v>
+        <v>1.033411050486251</v>
       </c>
       <c r="L13">
-        <v>1.012175929760421</v>
+        <v>1.02839143341743</v>
       </c>
       <c r="N13">
-        <v>1.018997756603554</v>
+        <v>1.032294371150704</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9880081816048331</v>
+        <v>1.024250358275622</v>
       </c>
       <c r="D14">
-        <v>1.009281177460557</v>
+        <v>1.029885043404599</v>
       </c>
       <c r="E14">
-        <v>0.997583778114266</v>
+        <v>1.024859716532243</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038529796088732</v>
+        <v>1.032905921703698</v>
       </c>
       <c r="J14">
-        <v>1.017924866526779</v>
+        <v>1.030904049663762</v>
       </c>
       <c r="K14">
-        <v>1.02404690363277</v>
+        <v>1.033478711335739</v>
       </c>
       <c r="L14">
-        <v>1.01256843403904</v>
+        <v>1.028472383630948</v>
       </c>
       <c r="N14">
-        <v>1.019370436594861</v>
+        <v>1.032368051660632</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9884460022926564</v>
+        <v>1.024333649609663</v>
       </c>
       <c r="D15">
-        <v>1.009590381742888</v>
+        <v>1.029946588148598</v>
       </c>
       <c r="E15">
-        <v>0.9979204548108676</v>
+        <v>1.024929605728804</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038644705790526</v>
+        <v>1.032922366875029</v>
       </c>
       <c r="J15">
-        <v>1.018153415991334</v>
+        <v>1.030949381057819</v>
       </c>
       <c r="K15">
-        <v>1.024262740172572</v>
+        <v>1.033520393989972</v>
       </c>
       <c r="L15">
-        <v>1.012809548783693</v>
+        <v>1.028522266031901</v>
       </c>
       <c r="N15">
-        <v>1.019599310625871</v>
+        <v>1.032413447430468</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9909740341176342</v>
+        <v>1.024818677640542</v>
       </c>
       <c r="D16">
-        <v>1.011377312646989</v>
+        <v>1.030304987875841</v>
       </c>
       <c r="E16">
-        <v>0.9998671315225623</v>
+        <v>1.025336745706958</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039305439062305</v>
+        <v>1.033017746591506</v>
       </c>
       <c r="J16">
-        <v>1.019472447529221</v>
+        <v>1.031213209642353</v>
       </c>
       <c r="K16">
-        <v>1.025508056865342</v>
+        <v>1.033762921106411</v>
       </c>
       <c r="L16">
-        <v>1.014202100564812</v>
+        <v>1.028812698249956</v>
       </c>
       <c r="N16">
-        <v>1.020920215339836</v>
+        <v>1.032677650681854</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9925423057543448</v>
+        <v>1.025123129611886</v>
       </c>
       <c r="D17">
-        <v>1.012487151877325</v>
+        <v>1.030529961870703</v>
       </c>
       <c r="E17">
-        <v>1.001077057597694</v>
+        <v>1.02559244454807</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039712862571664</v>
+        <v>1.033077277201979</v>
       </c>
       <c r="J17">
-        <v>1.020290119848329</v>
+        <v>1.031378683832033</v>
       </c>
       <c r="K17">
-        <v>1.026279722116845</v>
+        <v>1.033914976874395</v>
       </c>
       <c r="L17">
-        <v>1.015066228410986</v>
+        <v>1.028994961210851</v>
       </c>
       <c r="N17">
-        <v>1.021739048847426</v>
+        <v>1.032843359863863</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9934508860025614</v>
+        <v>1.025300785168862</v>
       </c>
       <c r="D18">
-        <v>1.01313059296922</v>
+        <v>1.030661242172459</v>
       </c>
       <c r="E18">
-        <v>1.00177884286484</v>
+        <v>1.02574170066471</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039948004184832</v>
+        <v>1.033111892557661</v>
       </c>
       <c r="J18">
-        <v>1.02076361474431</v>
+        <v>1.031475195005187</v>
       </c>
       <c r="K18">
-        <v>1.026726460110988</v>
+        <v>1.034003640918216</v>
       </c>
       <c r="L18">
-        <v>1.015566941645944</v>
+        <v>1.029101301354294</v>
       </c>
       <c r="N18">
-        <v>1.02221321616047</v>
+        <v>1.032940008093953</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9937596553852693</v>
+        <v>1.025361373594297</v>
       </c>
       <c r="D19">
-        <v>1.013349333584281</v>
+        <v>1.030706014932689</v>
       </c>
       <c r="E19">
-        <v>1.002017472135041</v>
+        <v>1.025792611960816</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040027760260044</v>
+        <v>1.03312367718447</v>
       </c>
       <c r="J19">
-        <v>1.020924486771218</v>
+        <v>1.031508101570444</v>
       </c>
       <c r="K19">
-        <v>1.026878221491069</v>
+        <v>1.034033868356237</v>
       </c>
       <c r="L19">
-        <v>1.015737115027915</v>
+        <v>1.029137565508582</v>
       </c>
       <c r="N19">
-        <v>1.022374316644108</v>
+        <v>1.032972961390307</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9923746859152146</v>
+        <v>1.025090457141737</v>
       </c>
       <c r="D20">
-        <v>1.012368482651642</v>
+        <v>1.030505818403187</v>
       </c>
       <c r="E20">
-        <v>1.000947653766386</v>
+        <v>1.025564998954362</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039669409401627</v>
+        <v>1.033070901280038</v>
       </c>
       <c r="J20">
-        <v>1.020202748528312</v>
+        <v>1.031360930744068</v>
       </c>
       <c r="K20">
-        <v>1.026197278705713</v>
+        <v>1.033898665565162</v>
       </c>
       <c r="L20">
-        <v>1.014973860267555</v>
+        <v>1.028975403084414</v>
       </c>
       <c r="N20">
-        <v>1.021651553450113</v>
+        <v>1.032825581564477</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9877985660905141</v>
+        <v>1.024210554149939</v>
       </c>
       <c r="D21">
-        <v>1.00913316783952</v>
+        <v>1.029855631912149</v>
       </c>
       <c r="E21">
-        <v>0.9974226352814142</v>
+        <v>1.024826319922492</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038474731914067</v>
+        <v>1.032898055921315</v>
       </c>
       <c r="J21">
-        <v>1.017815432840178</v>
+        <v>1.030882383610789</v>
       </c>
       <c r="K21">
-        <v>1.023943551116856</v>
+        <v>1.033458788030259</v>
       </c>
       <c r="L21">
-        <v>1.012453001700826</v>
+        <v>1.028448544494949</v>
       </c>
       <c r="N21">
-        <v>1.019260847499873</v>
+        <v>1.032346354839379</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9848627872803842</v>
+        <v>1.023658003003678</v>
       </c>
       <c r="D22">
-        <v>1.007062145688106</v>
+        <v>1.029447359011825</v>
       </c>
       <c r="E22">
-        <v>0.9951689870013768</v>
+        <v>1.024362899983366</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037700302230263</v>
+        <v>1.032788414851583</v>
       </c>
       <c r="J22">
-        <v>1.016282051331129</v>
+        <v>1.030581447526175</v>
       </c>
       <c r="K22">
-        <v>1.022494986390766</v>
+        <v>1.033181981411915</v>
       </c>
       <c r="L22">
-        <v>1.010836758562051</v>
+        <v>1.028117561541691</v>
       </c>
       <c r="N22">
-        <v>1.0177252884132</v>
+        <v>1.032044991391007</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9864248053889708</v>
+        <v>1.023950855835906</v>
       </c>
       <c r="D23">
-        <v>1.008163608461959</v>
+        <v>1.029663741761482</v>
       </c>
       <c r="E23">
-        <v>0.9963673168642154</v>
+        <v>1.024608470588753</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038113087211867</v>
+        <v>1.032846629001183</v>
       </c>
       <c r="J23">
-        <v>1.017098065150028</v>
+        <v>1.030740984137351</v>
       </c>
       <c r="K23">
-        <v>1.023265953045489</v>
+        <v>1.033328743941221</v>
       </c>
       <c r="L23">
-        <v>1.011696594072977</v>
+        <v>1.028292995390668</v>
       </c>
       <c r="N23">
-        <v>1.018542461065319</v>
+        <v>1.03220475456247</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9924504451290825</v>
+        <v>1.025105220196619</v>
       </c>
       <c r="D24">
-        <v>1.012422116231295</v>
+        <v>1.030516727621749</v>
       </c>
       <c r="E24">
-        <v>1.001006137958092</v>
+        <v>1.025577400093128</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039689051741791</v>
+        <v>1.033073782618027</v>
       </c>
       <c r="J24">
-        <v>1.020242238481924</v>
+        <v>1.031368952622536</v>
       </c>
       <c r="K24">
-        <v>1.026234541708878</v>
+        <v>1.033906036028888</v>
       </c>
       <c r="L24">
-        <v>1.015015607694889</v>
+        <v>1.02898424046973</v>
       </c>
       <c r="N24">
-        <v>1.021691099483989</v>
+        <v>1.032833614834932</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9992023339391183</v>
+        <v>1.026447686710587</v>
       </c>
       <c r="D25">
-        <v>1.017211253888684</v>
+        <v>1.031508790279599</v>
       </c>
       <c r="E25">
-        <v>1.006235318030457</v>
+        <v>1.026706147838568</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041420071112567</v>
+        <v>1.033333148572686</v>
       </c>
       <c r="J25">
-        <v>1.023756572580872</v>
+        <v>1.032097390628995</v>
       </c>
       <c r="K25">
-        <v>1.029548135938525</v>
+        <v>1.034574866967415</v>
       </c>
       <c r="L25">
-        <v>1.018737603757397</v>
+        <v>1.029787533477497</v>
       </c>
       <c r="N25">
-        <v>1.025210424340457</v>
+        <v>1.033563087306913</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_168/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_168/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027520695437743</v>
+        <v>1.004408425485315</v>
       </c>
       <c r="D2">
-        <v>1.032301774436475</v>
+        <v>1.020915947363742</v>
       </c>
       <c r="E2">
-        <v>1.027609874303749</v>
+        <v>1.010290757011208</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033536576406378</v>
+        <v>1.04272550748994</v>
       </c>
       <c r="J2">
-        <v>1.032678109988713</v>
+        <v>1.026458076081566</v>
       </c>
       <c r="K2">
-        <v>1.035107398427057</v>
+        <v>1.032091381870459</v>
       </c>
       <c r="L2">
-        <v>1.030429102474869</v>
+        <v>1.021608563022319</v>
       </c>
       <c r="N2">
-        <v>1.034144631354739</v>
+        <v>1.02791576428599</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028301072450298</v>
+        <v>1.008091351237131</v>
       </c>
       <c r="D3">
-        <v>1.032878511955579</v>
+        <v>1.023542793490901</v>
       </c>
       <c r="E3">
-        <v>1.02826801873824</v>
+        <v>1.013172517595443</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03368227300884</v>
+        <v>1.043631413318776</v>
       </c>
       <c r="J3">
-        <v>1.033099575735387</v>
+        <v>1.028363842166356</v>
       </c>
       <c r="K3">
-        <v>1.035493500853492</v>
+        <v>1.033883047374221</v>
       </c>
       <c r="L3">
-        <v>1.030895412652906</v>
+        <v>1.023639582904322</v>
       </c>
       <c r="N3">
-        <v>1.034566695631109</v>
+        <v>1.029824236777214</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028806608519734</v>
+        <v>1.010431578664325</v>
       </c>
       <c r="D4">
-        <v>1.033252132454826</v>
+        <v>1.025214480168208</v>
       </c>
       <c r="E4">
-        <v>1.028694776556743</v>
+        <v>1.015009380472355</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033775613710888</v>
+        <v>1.044198693206533</v>
       </c>
       <c r="J4">
-        <v>1.033372196915805</v>
+        <v>1.029572156004433</v>
       </c>
       <c r="K4">
-        <v>1.035743066147848</v>
+        <v>1.035017822752246</v>
       </c>
       <c r="L4">
-        <v>1.031197356885715</v>
+        <v>1.0249299686844</v>
       </c>
       <c r="N4">
-        <v>1.034839703964874</v>
+        <v>1.031034266559536</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029019272836835</v>
+        <v>1.011405440400267</v>
       </c>
       <c r="D5">
-        <v>1.033409304191379</v>
+        <v>1.025910699912594</v>
       </c>
       <c r="E5">
-        <v>1.028874397673045</v>
+        <v>1.015775111975971</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033814629610479</v>
+        <v>1.044432724430948</v>
       </c>
       <c r="J5">
-        <v>1.033486782661957</v>
+        <v>1.030074318370389</v>
       </c>
       <c r="K5">
-        <v>1.035847917666564</v>
+        <v>1.035489127950236</v>
       </c>
       <c r="L5">
-        <v>1.031324343115634</v>
+        <v>1.025466879436674</v>
       </c>
       <c r="N5">
-        <v>1.034954452435928</v>
+        <v>1.031537142053651</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029054988087535</v>
+        <v>1.011568379750149</v>
       </c>
       <c r="D6">
-        <v>1.033435699923981</v>
+        <v>1.026027218280202</v>
       </c>
       <c r="E6">
-        <v>1.028904569230505</v>
+        <v>1.015903306354515</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033821167363204</v>
+        <v>1.044471760195509</v>
       </c>
       <c r="J6">
-        <v>1.033506020653993</v>
+        <v>1.030158296600224</v>
       </c>
       <c r="K6">
-        <v>1.035865518803235</v>
+        <v>1.035567928222874</v>
       </c>
       <c r="L6">
-        <v>1.03134566748513</v>
+        <v>1.025556706465849</v>
       </c>
       <c r="N6">
-        <v>1.03497371774812</v>
+        <v>1.031621239542204</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028809449614982</v>
+        <v>1.010444630246117</v>
       </c>
       <c r="D7">
-        <v>1.03325423219416</v>
+        <v>1.025223808648114</v>
       </c>
       <c r="E7">
-        <v>1.028697175831864</v>
+        <v>1.015019637468386</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033776135926442</v>
+        <v>1.044201837747832</v>
       </c>
       <c r="J7">
-        <v>1.033373728112961</v>
+        <v>1.02957888858724</v>
       </c>
       <c r="K7">
-        <v>1.035744467438987</v>
+        <v>1.035024142805522</v>
       </c>
       <c r="L7">
-        <v>1.031199053491763</v>
+        <v>1.024937164612589</v>
       </c>
       <c r="N7">
-        <v>1.034841237336505</v>
+        <v>1.031041008703383</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027784306281523</v>
+        <v>1.005662145109361</v>
       </c>
       <c r="D8">
-        <v>1.032496594819529</v>
+        <v>1.021809610284184</v>
       </c>
       <c r="E8">
-        <v>1.027832110922644</v>
+        <v>1.011270532197517</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033586008347227</v>
+        <v>1.043035620622522</v>
       </c>
       <c r="J8">
-        <v>1.032820565226457</v>
+        <v>1.02710736588342</v>
       </c>
       <c r="K8">
-        <v>1.035237938375111</v>
+        <v>1.032702043222322</v>
       </c>
       <c r="L8">
-        <v>1.030586649731124</v>
+        <v>1.022299970857679</v>
       </c>
       <c r="N8">
-        <v>1.034287288895253</v>
+        <v>1.028565976153836</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02598239819471</v>
+        <v>0.9968926353375622</v>
       </c>
       <c r="D9">
-        <v>1.031164940409345</v>
+        <v>1.015570962068851</v>
       </c>
       <c r="E9">
-        <v>1.026314693355839</v>
+        <v>1.004442714748372</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033243853563985</v>
+        <v>1.040832442485182</v>
       </c>
       <c r="J9">
-        <v>1.031845152066742</v>
+        <v>1.02255560186806</v>
       </c>
       <c r="K9">
-        <v>1.034343371866929</v>
+        <v>1.028416363575569</v>
       </c>
       <c r="L9">
-        <v>1.029509192962856</v>
+        <v>1.017464120907855</v>
       </c>
       <c r="N9">
-        <v>1.03331049053697</v>
+        <v>1.02400774811148</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024784281678368</v>
+        <v>0.9907959600657781</v>
       </c>
       <c r="D10">
-        <v>1.030279571377919</v>
+        <v>1.011251355818721</v>
       </c>
       <c r="E10">
-        <v>1.025307864385804</v>
+        <v>0.9997298586700625</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03301100448552</v>
+        <v>1.03925905533757</v>
       </c>
       <c r="J10">
-        <v>1.031194508535528</v>
+        <v>1.019379572727303</v>
       </c>
       <c r="K10">
-        <v>1.033745733651523</v>
+        <v>1.02542039228312</v>
       </c>
       <c r="L10">
-        <v>1.028792104773625</v>
+        <v>1.014103992315629</v>
       </c>
       <c r="N10">
-        <v>1.032658923017312</v>
+        <v>1.020827208645047</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02426625629888</v>
+        <v>0.9880918337055057</v>
       </c>
       <c r="D11">
-        <v>1.02989679057021</v>
+        <v>1.009340249350424</v>
       </c>
       <c r="E11">
-        <v>1.024873055851738</v>
+        <v>0.9976480946909778</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032909062120811</v>
+        <v>1.038551761967919</v>
       </c>
       <c r="J11">
-        <v>1.030912702751864</v>
+        <v>1.017968536687991</v>
       </c>
       <c r="K11">
-        <v>1.033486668187737</v>
+        <v>1.024088145984653</v>
       </c>
       <c r="L11">
-        <v>1.028481904987323</v>
+        <v>1.012614501215551</v>
       </c>
       <c r="N11">
-        <v>1.032376717037112</v>
+        <v>1.019414168772711</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024073955764672</v>
+        <v>0.9870773145324223</v>
       </c>
       <c r="D12">
-        <v>1.029754699333201</v>
+        <v>1.008624031605567</v>
       </c>
       <c r="E12">
-        <v>1.024711724186278</v>
+        <v>0.9968684067209435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032871029101589</v>
+        <v>1.038285026543015</v>
       </c>
       <c r="J12">
-        <v>1.030808017995343</v>
+        <v>1.017438836851231</v>
       </c>
       <c r="K12">
-        <v>1.033390398456624</v>
+        <v>1.023587853093559</v>
       </c>
       <c r="L12">
-        <v>1.028366730194739</v>
+        <v>1.012055850052429</v>
       </c>
       <c r="N12">
-        <v>1.032271883616228</v>
+        <v>1.018883716701426</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024115199549496</v>
+        <v>0.9872953960544963</v>
       </c>
       <c r="D13">
-        <v>1.029785174254312</v>
+        <v>1.008777953897412</v>
       </c>
       <c r="E13">
-        <v>1.024746322397756</v>
+        <v>0.9970359476243698</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032879194862144</v>
+        <v>1.038342425693824</v>
       </c>
       <c r="J13">
-        <v>1.030830473640227</v>
+        <v>1.017552715033279</v>
       </c>
       <c r="K13">
-        <v>1.033411050486251</v>
+        <v>1.02369541672112</v>
       </c>
       <c r="L13">
-        <v>1.02839143341743</v>
+        <v>1.012175929760421</v>
       </c>
       <c r="N13">
-        <v>1.032294371150704</v>
+        <v>1.018997756603554</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024250358275622</v>
+        <v>0.9880081816048329</v>
       </c>
       <c r="D14">
-        <v>1.029885043404599</v>
+        <v>1.009281177460557</v>
       </c>
       <c r="E14">
-        <v>1.024859716532243</v>
+        <v>0.9975837781142655</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032905921703698</v>
+        <v>1.038529796088732</v>
       </c>
       <c r="J14">
-        <v>1.030904049663762</v>
+        <v>1.017924866526779</v>
       </c>
       <c r="K14">
-        <v>1.033478711335739</v>
+        <v>1.02404690363277</v>
       </c>
       <c r="L14">
-        <v>1.028472383630948</v>
+        <v>1.01256843403904</v>
       </c>
       <c r="N14">
-        <v>1.032368051660632</v>
+        <v>1.019370436594861</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024333649609663</v>
+        <v>0.9884460022926561</v>
       </c>
       <c r="D15">
-        <v>1.029946588148598</v>
+        <v>1.009590381742887</v>
       </c>
       <c r="E15">
-        <v>1.024929605728804</v>
+        <v>0.9979204548108672</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032922366875029</v>
+        <v>1.038644705790526</v>
       </c>
       <c r="J15">
-        <v>1.030949381057819</v>
+        <v>1.018153415991334</v>
       </c>
       <c r="K15">
-        <v>1.033520393989972</v>
+        <v>1.024262740172571</v>
       </c>
       <c r="L15">
-        <v>1.028522266031901</v>
+        <v>1.012809548783693</v>
       </c>
       <c r="N15">
-        <v>1.032413447430468</v>
+        <v>1.019599310625871</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024818677640542</v>
+        <v>0.9909740341176339</v>
       </c>
       <c r="D16">
-        <v>1.030304987875841</v>
+        <v>1.011377312646989</v>
       </c>
       <c r="E16">
-        <v>1.025336745706958</v>
+        <v>0.9998671315225617</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033017746591506</v>
+        <v>1.039305439062305</v>
       </c>
       <c r="J16">
-        <v>1.031213209642353</v>
+        <v>1.01947244752922</v>
       </c>
       <c r="K16">
-        <v>1.033762921106411</v>
+        <v>1.025508056865342</v>
       </c>
       <c r="L16">
-        <v>1.028812698249956</v>
+        <v>1.014202100564811</v>
       </c>
       <c r="N16">
-        <v>1.032677650681854</v>
+        <v>1.020920215339836</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025123129611886</v>
+        <v>0.9925423057543439</v>
       </c>
       <c r="D17">
-        <v>1.030529961870703</v>
+        <v>1.012487151877324</v>
       </c>
       <c r="E17">
-        <v>1.02559244454807</v>
+        <v>1.001077057597693</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033077277201979</v>
+        <v>1.039712862571664</v>
       </c>
       <c r="J17">
-        <v>1.031378683832033</v>
+        <v>1.020290119848329</v>
       </c>
       <c r="K17">
-        <v>1.033914976874395</v>
+        <v>1.026279722116845</v>
       </c>
       <c r="L17">
-        <v>1.028994961210851</v>
+        <v>1.015066228410986</v>
       </c>
       <c r="N17">
-        <v>1.032843359863863</v>
+        <v>1.021739048847425</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025300785168862</v>
+        <v>0.9934508860025614</v>
       </c>
       <c r="D18">
-        <v>1.030661242172459</v>
+        <v>1.013130592969219</v>
       </c>
       <c r="E18">
-        <v>1.02574170066471</v>
+        <v>1.00177884286484</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033111892557661</v>
+        <v>1.039948004184832</v>
       </c>
       <c r="J18">
-        <v>1.031475195005187</v>
+        <v>1.02076361474431</v>
       </c>
       <c r="K18">
-        <v>1.034003640918216</v>
+        <v>1.026726460110988</v>
       </c>
       <c r="L18">
-        <v>1.029101301354294</v>
+        <v>1.015566941645943</v>
       </c>
       <c r="N18">
-        <v>1.032940008093953</v>
+        <v>1.02221321616047</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025361373594297</v>
+        <v>0.9937596553852687</v>
       </c>
       <c r="D19">
-        <v>1.030706014932689</v>
+        <v>1.013349333584281</v>
       </c>
       <c r="E19">
-        <v>1.025792611960816</v>
+        <v>1.00201747213504</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03312367718447</v>
+        <v>1.040027760260043</v>
       </c>
       <c r="J19">
-        <v>1.031508101570444</v>
+        <v>1.020924486771217</v>
       </c>
       <c r="K19">
-        <v>1.034033868356237</v>
+        <v>1.026878221491069</v>
       </c>
       <c r="L19">
-        <v>1.029137565508582</v>
+        <v>1.015737115027914</v>
       </c>
       <c r="N19">
-        <v>1.032972961390307</v>
+        <v>1.022374316644108</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025090457141737</v>
+        <v>0.9923746859152137</v>
       </c>
       <c r="D20">
-        <v>1.030505818403187</v>
+        <v>1.012368482651641</v>
       </c>
       <c r="E20">
-        <v>1.025564998954362</v>
+        <v>1.000947653766386</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033070901280038</v>
+        <v>1.039669409401627</v>
       </c>
       <c r="J20">
-        <v>1.031360930744068</v>
+        <v>1.020202748528311</v>
       </c>
       <c r="K20">
-        <v>1.033898665565162</v>
+        <v>1.026197278705712</v>
       </c>
       <c r="L20">
-        <v>1.028975403084414</v>
+        <v>1.014973860267554</v>
       </c>
       <c r="N20">
-        <v>1.032825581564477</v>
+        <v>1.021651553450112</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024210554149939</v>
+        <v>0.9877985660905141</v>
       </c>
       <c r="D21">
-        <v>1.029855631912149</v>
+        <v>1.00913316783952</v>
       </c>
       <c r="E21">
-        <v>1.024826319922492</v>
+        <v>0.9974226352814142</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032898055921315</v>
+        <v>1.038474731914067</v>
       </c>
       <c r="J21">
-        <v>1.030882383610789</v>
+        <v>1.017815432840178</v>
       </c>
       <c r="K21">
-        <v>1.033458788030259</v>
+        <v>1.023943551116856</v>
       </c>
       <c r="L21">
-        <v>1.028448544494949</v>
+        <v>1.012453001700826</v>
       </c>
       <c r="N21">
-        <v>1.032346354839379</v>
+        <v>1.019260847499873</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023658003003678</v>
+        <v>0.9848627872803831</v>
       </c>
       <c r="D22">
-        <v>1.029447359011825</v>
+        <v>1.007062145688105</v>
       </c>
       <c r="E22">
-        <v>1.024362899983366</v>
+        <v>0.9951689870013757</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032788414851583</v>
+        <v>1.037700302230262</v>
       </c>
       <c r="J22">
-        <v>1.030581447526175</v>
+        <v>1.016282051331128</v>
       </c>
       <c r="K22">
-        <v>1.033181981411915</v>
+        <v>1.022494986390765</v>
       </c>
       <c r="L22">
-        <v>1.028117561541691</v>
+        <v>1.01083675856205</v>
       </c>
       <c r="N22">
-        <v>1.032044991391007</v>
+        <v>1.017725288413199</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023950855835906</v>
+        <v>0.986424805388971</v>
       </c>
       <c r="D23">
-        <v>1.029663741761482</v>
+        <v>1.008163608461959</v>
       </c>
       <c r="E23">
-        <v>1.024608470588753</v>
+        <v>0.9963673168642156</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032846629001183</v>
+        <v>1.038113087211867</v>
       </c>
       <c r="J23">
-        <v>1.030740984137351</v>
+        <v>1.017098065150028</v>
       </c>
       <c r="K23">
-        <v>1.033328743941221</v>
+        <v>1.023265953045489</v>
       </c>
       <c r="L23">
-        <v>1.028292995390668</v>
+        <v>1.011696594072977</v>
       </c>
       <c r="N23">
-        <v>1.03220475456247</v>
+        <v>1.018542461065319</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025105220196619</v>
+        <v>0.9924504451290826</v>
       </c>
       <c r="D24">
-        <v>1.030516727621749</v>
+        <v>1.012422116231296</v>
       </c>
       <c r="E24">
-        <v>1.025577400093128</v>
+        <v>1.001006137958092</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033073782618027</v>
+        <v>1.039689051741791</v>
       </c>
       <c r="J24">
-        <v>1.031368952622536</v>
+        <v>1.020242238481924</v>
       </c>
       <c r="K24">
-        <v>1.033906036028888</v>
+        <v>1.026234541708878</v>
       </c>
       <c r="L24">
-        <v>1.02898424046973</v>
+        <v>1.015015607694889</v>
       </c>
       <c r="N24">
-        <v>1.032833614834932</v>
+        <v>1.021691099483989</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026447686710587</v>
+        <v>0.9992023339391179</v>
       </c>
       <c r="D25">
-        <v>1.031508790279599</v>
+        <v>1.017211253888684</v>
       </c>
       <c r="E25">
-        <v>1.026706147838568</v>
+        <v>1.006235318030456</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033333148572686</v>
+        <v>1.041420071112567</v>
       </c>
       <c r="J25">
-        <v>1.032097390628995</v>
+        <v>1.023756572580872</v>
       </c>
       <c r="K25">
-        <v>1.034574866967415</v>
+        <v>1.029548135938525</v>
       </c>
       <c r="L25">
-        <v>1.029787533477497</v>
+        <v>1.018737603757396</v>
       </c>
       <c r="N25">
-        <v>1.033563087306913</v>
+        <v>1.025210424340457</v>
       </c>
     </row>
   </sheetData>
